--- a/P04_OGRAS_Yasin/P4_03_analyse.xlsx
+++ b/P04_OGRAS_Yasin/P4_03_analyse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs_ya\Desktop\P04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs_ya\Desktop\P04\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802E8CB-D785-4E64-AF57-3258EF380A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151AB4FA-EB16-4F61-A630-61A60570344B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t>cours</t>
   </si>
   <si>
-    <t>"parse error" dans l'html comme par exemple : &amp;rsquo;</t>
-  </si>
-  <si>
     <t>toujours mettre une structure de type minimum comme header, section footer</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t xml:space="preserve">des mots clés identitque écrits 3 fois en 1px (un au-dessus et un en dessous-du logo puis dans le footer ) </t>
   </si>
   <si>
-    <t>Manque de ballisage ARIA</t>
-  </si>
-  <si>
     <t>manque d'accesibilité screen reader</t>
   </si>
   <si>
@@ -319,15 +313,9 @@
     <t xml:space="preserve">W3c validator refus </t>
   </si>
   <si>
-    <t xml:space="preserve">remplacer tous les parse par une police simple comme pour : "&amp;rsquo;"  dans l'html par " ' " </t>
-  </si>
-  <si>
     <t>validation W3C + maintabilité</t>
   </si>
   <si>
-    <t>Prioriter à l'utiliser de police simple cela facilite la maintabilité et permet d'éviter la probabilité de refus W3c.</t>
-  </si>
-  <si>
     <t>accesibilité lisibilité</t>
   </si>
   <si>
@@ -395,6 +383,18 @@
   </si>
   <si>
     <t>une balise méta description permet d'ajouter une description d'une page indexée dans lequel on peut y insérer des mots clés. Cela permet d'informer les moteurs de recherche ainsi que les internautes du contenu de la page.</t>
+  </si>
+  <si>
+    <t>"parse error" dans l'html (comme par exemple : &amp;rsquo;)</t>
+  </si>
+  <si>
+    <t>Ecriture sans recodage  cela facilite la maintabilité et permet d'éviter la probabilité de refus W3c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplacer tous les parse par l'écriture sans recodage comme pour : "&amp;rsquo;"  dans l'html par " ' " </t>
+  </si>
+  <si>
+    <t>Manque de ballisage ARIA pour les icones sociaux</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -623,10 +623,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -846,7 +849,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -927,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -941,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>28</v>
@@ -950,9 +953,9 @@
         <f>HYPERLINK(" https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=devtools")</f>
         <v xml:space="preserve"> https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=devtools</v>
       </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:26" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -960,96 +963,97 @@
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="83.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>110</v>
+      <c r="D6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="15" t="str">
+        <f>HYPERLINK("https://html.spec.whatwg.org/multipage/parsing.html")</f>
+        <v>https://html.spec.whatwg.org/multipage/parsing.html</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="89" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="117.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="149" customHeight="1" x14ac:dyDescent="0.35">
@@ -1057,16 +1061,16 @@
         <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F10" s="21" t="str">
         <f>HYPERLINK("https://la-cascade.io/bien-F10utiliser-lattribut-alt/")</f>
@@ -1075,22 +1079,22 @@
     </row>
     <row r="11" spans="1:26" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1098,16 +1102,16 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="F12" s="15" t="str">
         <f>HYPERLINK("mdn mozilla : https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/ARIA_Techniques/Using_the_aria-label_attribute")</f>
@@ -1140,16 +1144,16 @@
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -1167,10 +1171,10 @@
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.35">
@@ -1190,7 +1194,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="124" customHeight="1" x14ac:dyDescent="0.35">
@@ -1198,19 +1202,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F17" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -1218,43 +1222,32 @@
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="15" t="str">
-        <f>HYPERLINK("https://html.spec.whatwg.org/multipage/parsing.html")</f>
-        <v>https://html.spec.whatwg.org/multipage/parsing.html</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="107.5" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="2"/>
+    </row>
     <row r="21" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1262,11 +1255,11 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2250,20 +2243,19 @@
     <hyperlink ref="F17" r:id="rId5" xr:uid="{8403FE8B-6D8A-4818-B4FC-213FCEC956AE}"/>
     <hyperlink ref="F18" r:id="rId6" location=":~:text=Pour%20cela%2C%20il%20suffit%20d,votre%20image%20pour%20la%20centrer." xr:uid="{996ED9FC-701E-45EE-A282-329E77C0E86F}"/>
     <hyperlink ref="F6" r:id="rId7" xr:uid="{869F4106-C1CD-46C0-9D70-492883CCE422}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{69BE8753-318E-4320-8714-E8FACE9618A2}"/>
-    <hyperlink ref="F3" r:id="rId9" location=":~:text=La%20Balise%20Title%20est%20une,de%20la%20page%20par%20Google%E2%80%A6" xr:uid="{C4675964-12B0-453C-B9D0-0E84870CCA99}"/>
+    <hyperlink ref="F3" r:id="rId8" location=":~:text=La%20Balise%20Title%20est%20une,de%20la%20page%20par%20Google%E2%80%A6" xr:uid="{C4675964-12B0-453C-B9D0-0E84870CCA99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId10"/>
+  <pageSetup orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685AF646-6C6D-4736-B246-B9859B2A2B4E}">
-  <dimension ref="A6:F15"/>
+  <dimension ref="A6:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2284,14 +2276,14 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -2302,7 +2294,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>49</v>
@@ -2333,7 +2325,7 @@
     </row>
     <row r="13" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>41</v>
@@ -2389,6 +2381,26 @@
       </c>
       <c r="F15" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
